--- a/biology/Médecine/Mandibule_(anatomie_humaine)/Mandibule_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Mandibule_(anatomie_humaine)/Mandibule_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mandibule (ou maxillaire inférieur) est un os impair symétrique formant la mâchoire inférieure. Il se compose d'une partie centrale : le corps de la mandibule auquel s'attache latéralement et en haut les deux branches de la mandibule.
 </t>
@@ -511,26 +523,140 @@
           <t>Corps de la mandibule</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps de la mandibule forme un os plat dans le sens horizontal incurvé vers l'arrière en forme de fer à cheval.
 Il présente une face interne postérieure et une face antérieure externe.
 Sa partie inférieure est constituée d'os dense et nervuré constituant la base de la mandibule dont le bord supérieur est occupée par la partie alvéolaire de la mandibule.
-Base de la mandibule
-Face antérieure
-La partie centrale de la face antérieure de la base de la mandibule est marquée par une crête verticale issue de la fusion des deux parties droite et gauche de la mandibule : la symphyse de la mandibule. Sa partie inférieure présente une saillie médiale triangulaire à base inférieure : la protubérance mentonnière. Celle-ci est prolongée latéralement par deux petites saillies osseuses formant les tubercules mentonniers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Corps de la mandibule</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Base de la mandibule</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie centrale de la face antérieure de la base de la mandibule est marquée par une crête verticale issue de la fusion des deux parties droite et gauche de la mandibule : la symphyse de la mandibule. Sa partie inférieure présente une saillie médiale triangulaire à base inférieure : la protubérance mentonnière. Celle-ci est prolongée latéralement par deux petites saillies osseuses formant les tubercules mentonniers.
 De chaque côté de la protubérance mentonnière partent deux crête osseuses oblique en haut et en arrière qui rejoignent les bords antérieurs des branches de la mandibule : la ligne oblique de la mandibule ou ligne oblique externe de la mandibule.
 Le point le plus inférieur de la symphyse forme le point crâniométrique gnathion.
 En arrière de la symphyse au niveau de la verticale des deux prémolaires se trouvent les deux foramens mentonniers, orifices antérieurs des canaux mandibulaires.
 La face antérieure de la base donne insertion au muscle platysma sur le tiers antérieur de son bord inférieur. Au-dessus sur la ligne oblique le muscle abaisseur de l'angle de la bouche et le muscle abaisseur de la lèvre inférieure. Dans une fossette à proximité de la symphyse, s'insère le muscle mentonnier.
-Face postérieure
-Au niveau de la ligne moyenne la face postérieure présente les quatre épines mentales, deux supérieures et deux inférieures, formant le processus geni. En dessous une zone ovalaire forme une dépression : la fosse digastrique prés du bord inférieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Corps de la mandibule</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Base de la mandibule</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Face postérieure</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau de la ligne moyenne la face postérieure présente les quatre épines mentales, deux supérieures et deux inférieures, formant le processus geni. En dessous une zone ovalaire forme une dépression : la fosse digastrique prés du bord inférieur.
 A partir des épines mentales inférieures se dessinent deux lignes saillantes obliques en haut et en arrière jusqu'aux bords antérieurs des branches de la mandibule : les lignes mylo-hyoïdiennes.
 Au-dessus de ces lignes se trouvent les fosses sublinguales et en dessous les fosses submandibulaires recevant les glandes salivaires sublinguales et submandibulaires.
 La face postérieure de la base donne insertion au muscle digastrique au niveau de la fosse digastrique. Au dessus et le long de la ligne muscle mylo-hyoïdienne s’insère le muscle mylo-hyoïdien.
 Au niveau des épines mentales s’insèrent les muscles génoglosses sur les épines supérieures et génio-hyoïdiens sur les inférieures.
-Partie alvéolaire de la mandibule
-La partie alvéolaire de la mandibule occupe le bord supérieur de la base de la mandibule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Corps de la mandibule</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Partie alvéolaire de la mandibule</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie alvéolaire de la mandibule occupe le bord supérieur de la base de la mandibule.
 Sa face supérieure présente seize cavités coniques formant les alvéoles dentaires et constituant l'arc alvéolaire de la mandibule.
 Les alvéoles dentaires sont séparées de leurs voisines par les septums inter-alvéolaires. Les alvéoles des prémolaires et des molaires sont elles-mêmes subdivisées en alvéoles secondaires par les septums interradiculaires pour chaque racine dentaire.
 Chacune des alvéoles reçoit une dent pour former une gomphose entre la dent et la mandibule.
@@ -542,31 +668,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Branches de la mandibule</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux branches de la mandibule se projettent en haut à partir de l'arrière de la base de la mandibule.
 Leur bord antérieur sont en continuité avec le bord supérieur de la partie alvéolaire.
@@ -583,93 +711,99 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La mandibule est initialement formée de deux os, les dentaires droit et gauche, qui fusionnent au cours du développement embryonnaire, formant la symphyse mentonnière (ou symphyse mandibulaire).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La mandibule est, avec le maxillaire, l'os qui porte les dents et par son articulation avec le crâne contribue à la mastication.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Innervation et vascularisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La mandibule est innervée par le nerf mandibulaire, ou nerf V
 3 (troisième branche du nerf trijumeau, ou nerf V, qui va aussi donner le V
@@ -679,64 +813,71 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luxation de la mandibule
-En cas de luxation de la mandibule, la manœuvre de Nélaton permet une réduction de la luxation.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Luxation de la mandibule</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de luxation de la mandibule, la manœuvre de Nélaton permet une réduction de la luxation.
 Lorsqu'un trait de fracture de la branche horizontale passe par le trou mentonnier, on observe une anesthésie du territoire cutané correspondant au nerf mentonnier.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandibule_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Mandibules humaines fossiles</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Mandibule de Mauer
 Mandibule de Montmaurin
